--- a/PepCp/Cp Pep Sheet/All Combine.xlsx
+++ b/PepCp/Cp Pep Sheet/All Combine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\Competetive\PepCp\Cp Pep Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECF5026-3FDF-485B-9317-41CC8725D7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76431101-05FB-4754-8F69-3E6D74684C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
